--- a/Issue Record (1).xlsx
+++ b/Issue Record (1).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t xml:space="preserve">Database
 Row #</t>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t xml:space="preserve">HL to 1/32"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/Dropbox/IssueDB/photos/1</t>
   </si>
   <si>
     <t xml:space="preserve">Cracks; spalling</t>
@@ -704,8 +707,8 @@
   </sheetPr>
   <dimension ref="A1:AF49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10:AF24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AE2" activeCellId="0" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="13.8" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -906,7 +909,9 @@
       <c r="AB2" s="11"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="12"/>
-      <c r="AE2" s="10"/>
+      <c r="AE2" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="AF2" s="1"/>
     </row>
     <row r="3" s="7" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -955,17 +960,17 @@
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S3" s="12"/>
       <c r="T3" s="12" t="s">
         <v>37</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V3" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W3" s="11" t="n">
         <v>2</v>
@@ -980,7 +985,7 @@
       <c r="AC3" s="12"/>
       <c r="AD3" s="12"/>
       <c r="AE3" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AF3" s="1"/>
     </row>
@@ -1004,13 +1009,13 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I4" s="11" t="n">
         <v>5</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4" s="11" t="n">
         <v>2</v>
@@ -1025,18 +1030,18 @@
         <v>0</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="13" t="n">
@@ -1050,12 +1055,12 @@
       <c r="Z4" s="11"/>
       <c r="AA4" s="11"/>
       <c r="AB4" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AC4" s="12"/>
       <c r="AD4" s="12"/>
       <c r="AE4" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AF4" s="1"/>
     </row>
@@ -1068,10 +1073,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" s="11" t="n">
         <v>1567</v>
@@ -1079,13 +1084,13 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I5" s="11" t="n">
         <v>6</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K5" s="11" t="n">
         <v>2</v>
@@ -1100,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T5" s="12"/>
       <c r="U5" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W5" s="11" t="n">
         <v>3.5</v>
@@ -1130,7 +1135,7 @@
       <c r="AC5" s="12"/>
       <c r="AD5" s="12"/>
       <c r="AE5" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF5" s="1"/>
     </row>
@@ -1143,10 +1148,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6" s="11" t="n">
         <v>1678</v>
@@ -1154,7 +1159,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I6" s="11" t="n">
         <v>7</v>
@@ -1163,10 +1168,10 @@
         <v>1</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M6" s="8" t="b">
         <f aca="false">FALSE()</f>
@@ -1177,23 +1182,23 @@
         <v>0</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S6" s="12"/>
       <c r="T6" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="V6" s="12"/>
       <c r="W6" s="11" t="n">
@@ -1209,7 +1214,7 @@
       <c r="AC6" s="12"/>
       <c r="AD6" s="12"/>
       <c r="AE6" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF6" s="1"/>
     </row>
@@ -1222,10 +1227,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7" s="11" t="n">
         <v>1678</v>
@@ -1233,7 +1238,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I7" s="11" t="n">
         <v>7</v>
@@ -1242,10 +1247,10 @@
         <v>1</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M7" s="8" t="b">
         <f aca="false">TRUE()</f>
@@ -1256,22 +1261,22 @@
         <v>1</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S7" s="12"/>
       <c r="T7" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W7" s="11"/>
       <c r="X7" s="11" t="n">
@@ -1286,7 +1291,7 @@
       <c r="AC7" s="12"/>
       <c r="AD7" s="12"/>
       <c r="AE7" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF7" s="1"/>
     </row>
@@ -1299,10 +1304,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -1323,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
@@ -1338,14 +1343,14 @@
         <v>3</v>
       </c>
       <c r="Z8" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA8" s="11"/>
       <c r="AB8" s="11"/>
       <c r="AC8" s="12"/>
       <c r="AD8" s="12"/>
       <c r="AE8" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF8" s="1"/>
     </row>
@@ -1358,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E9" s="11" t="n">
         <v>3456</v>
@@ -1371,7 +1376,7 @@
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I9" s="11" t="n">
         <v>10</v>
@@ -1380,7 +1385,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="8" t="b">
@@ -1392,24 +1397,24 @@
         <v>0</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P9" s="12"/>
       <c r="Q9" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T9" s="12"/>
       <c r="U9" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
@@ -1418,13 +1423,13 @@
       </c>
       <c r="Z9" s="11"/>
       <c r="AA9" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AB9" s="11"/>
       <c r="AC9" s="12"/>
       <c r="AD9" s="12"/>
       <c r="AE9" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF9" s="1"/>
     </row>
